--- a/Automation-UserCMD/TestData/Outputs/ClassProdMappingOutput.xlsx
+++ b/Automation-UserCMD/TestData/Outputs/ClassProdMappingOutput.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ClassProductAsscociation (4)" sheetId="1" r:id="R7b9ae64e191a44e5"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ClassProductAsscociation (4)" sheetId="1" r:id="R84410fc0b7aa4aa2"/>
   </x:sheets>
 </x:workbook>
 </file>

--- a/Automation-UserCMD/TestData/Outputs/ClassProdMappingOutput.xlsx
+++ b/Automation-UserCMD/TestData/Outputs/ClassProdMappingOutput.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ClassProductAsscociation (4)" sheetId="1" r:id="R84410fc0b7aa4aa2"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ClassProductAsscociation (4)" sheetId="1" r:id="Re80afbfed7ba4040"/>
   </x:sheets>
 </x:workbook>
 </file>

--- a/Automation-UserCMD/TestData/Outputs/ClassProdMappingOutput.xlsx
+++ b/Automation-UserCMD/TestData/Outputs/ClassProdMappingOutput.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ClassProductAsscociation (4)" sheetId="1" r:id="Re80afbfed7ba4040"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ClassProductAsscociation (4)" sheetId="1" r:id="Rf4d9b9929b424382"/>
   </x:sheets>
 </x:workbook>
 </file>

--- a/Automation-UserCMD/TestData/Outputs/ClassProdMappingOutput.xlsx
+++ b/Automation-UserCMD/TestData/Outputs/ClassProdMappingOutput.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ClassProductAsscociation (4)" sheetId="1" r:id="Rf4d9b9929b424382"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ClassProductAsscociation (4)" sheetId="1" r:id="R2dec84cff143416d"/>
   </x:sheets>
 </x:workbook>
 </file>

--- a/Automation-UserCMD/TestData/Outputs/ClassProdMappingOutput.xlsx
+++ b/Automation-UserCMD/TestData/Outputs/ClassProdMappingOutput.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ClassProductAsscociation (4)" sheetId="1" r:id="R2dec84cff143416d"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ClassProductAsscociation (4)" sheetId="1" r:id="R5b9f4cb494d14811"/>
   </x:sheets>
 </x:workbook>
 </file>
